--- a/Matrikel for Kongens kvarter/Point20/Point20_172_2.xlsx
+++ b/Matrikel for Kongens kvarter/Point20/Point20_172_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erikl\Desktop\Quarter på Sanct Croix\Matrikel for Kongens kvarter\Point20_172_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erikl\Desktop\Quarter på Sanct Croix\Matrikel for Kongens kvarter\Point20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4491EDFD-C20A-4217-812C-CFEF409F8F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B9604B-3C9C-4347-B54E-317D63502C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82C3B1EC-E60E-4696-9212-B95A88ACEC15}"/>
   </bookViews>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Kongens Quarter</t>
-  </si>
-  <si>
-    <t>No 20</t>
-  </si>
-  <si>
-    <t>John Ryan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>St Croix 11th December 1799.</t>
   </si>
@@ -458,7 +449,7 @@
   <dimension ref="C3:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,44 +457,36 @@
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" ht="144" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="3:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="3:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="3:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="3:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="9" spans="3:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+    <row r="10" spans="3:3" ht="108" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+    <row r="11" spans="3:3" ht="108" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="C6" s="2">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" ht="108" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3" ht="108" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="12" spans="3:3" ht="36" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
